--- a/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/7_product_models.xlsx
+++ b/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/7_product_models.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="291">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -61,7 +61,10 @@
     <t xml:space="preserve">price_reference-USD</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCT_DESCRIPTION</t>
+    <t xml:space="preserve">PRODUCT_DESCRIPTION-en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT_DESCRIPTION-fr_FR</t>
   </si>
   <si>
     <t xml:space="preserve">ROUTE_OF_ADMINISTRATION</t>
@@ -115,6 +118,9 @@
     <t xml:space="preserve">Etonogestrel 68 mg/rod, 1 Rod Implant</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Etonogestrel 68 mg/rod, 1 Rod Implant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parenteral_Slow_Release</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t xml:space="preserve">Desogestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Desogestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oral_Solid</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t xml:space="preserve">Syringe, With Needle, 1 mL, 22G x 1.0 in, Auto-Disable, Sterile, Single Use</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Syringe, With Needle, 1 mL, 22G x 1.0 in, Auto-Disable, Sterile, Single Use</t>
+  </si>
+  <si>
     <t xml:space="preserve">42142609</t>
   </si>
   <si>
@@ -205,6 +217,9 @@
     <t xml:space="preserve">Levonorgestrel 1.5 mg Tablet, 1 Tablet</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel 1.5 mg Tablet, 1 Tablet</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5 mg</t>
   </si>
   <si>
@@ -223,6 +238,9 @@
     <t xml:space="preserve">Levonorgestrel 75mg/rod, 2 Rod Implant, 3 Year Efficacy</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel 75mg/rod, 2 Rod Implant, 3 Year Efficacy</t>
+  </si>
+  <si>
     <t xml:space="preserve">75mg/rod</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t xml:space="preserve">Desogestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Desogestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">11000</t>
   </si>
   <si>
@@ -256,6 +277,9 @@
     <t xml:space="preserve">Male Condom (Latex), 49 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 49 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">53131622</t>
   </si>
   <si>
@@ -271,6 +295,9 @@
     <t xml:space="preserve">Levonorgestrel 75mg/rod, 2 Rod Implant, 5 Year Efficacy</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel 75mg/rod, 2 Rod Implant, 5 Year Efficacy</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002</t>
   </si>
   <si>
@@ -286,6 +313,9 @@
     <t xml:space="preserve">Levonorgestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">51352413</t>
   </si>
   <si>
@@ -298,6 +328,9 @@
     <t xml:space="preserve">Male Condom (Latex), 51 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 51 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003</t>
   </si>
   <si>
@@ -310,6 +343,9 @@
     <t xml:space="preserve">Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Ferrous Fumarate 75 mg, 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Ferrous Fumarate 75 mg, 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">5000</t>
   </si>
   <si>
@@ -334,6 +370,9 @@
     <t xml:space="preserve">Depot Medroxyprogesterone Acetate 104 mg/0.65 mL, Subcutaneous, Pre-Filled Device</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Depot Medroxyprogesterone Acetate 104 mg/0.65 mL, Subcutaneous, Pre-Filled Device</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parenteral</t>
   </si>
   <si>
@@ -352,6 +391,9 @@
     <t xml:space="preserve">Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">11002</t>
   </si>
   <si>
@@ -364,6 +406,9 @@
     <t xml:space="preserve">Male Condom (Latex), 52 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 52 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">11003</t>
   </si>
   <si>
@@ -373,6 +418,9 @@
     <t xml:space="preserve">Male Condom (Latex), 53 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 53 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">7000</t>
   </si>
   <si>
@@ -388,6 +436,9 @@
     <t xml:space="preserve">Color-Coded Plastic Beads</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Color-Coded Plastic Beads</t>
+  </si>
+  <si>
     <t xml:space="preserve">42143103</t>
   </si>
   <si>
@@ -406,6 +457,9 @@
     <t xml:space="preserve">Depot Medroxyprogesterone Acetate 150 mg/ml (1ml) Vial, Intramuscular</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Depot Medroxyprogesterone Acetate 150 mg/ml (1ml) Vial, Intramuscular</t>
+  </si>
+  <si>
     <t xml:space="preserve">150 mg/ml</t>
   </si>
   <si>
@@ -424,6 +478,9 @@
     <t xml:space="preserve">Female Condom (Nitrile), Inner Retention Ring</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Female Condom (Nitrile), Inner Retention Ring</t>
+  </si>
+  <si>
     <t xml:space="preserve">11004</t>
   </si>
   <si>
@@ -433,6 +490,9 @@
     <t xml:space="preserve">Male Condom (Latex), 56 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 56 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">5002</t>
   </si>
   <si>
@@ -454,6 +514,9 @@
     <t xml:space="preserve">Norethisterone Enantate 200 mg/mL (1 mL) Ampoule, Intramuscular</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Norethisterone Enantate 200 mg/mL (1 mL) Ampoule, Intramuscular</t>
+  </si>
+  <si>
     <t xml:space="preserve">200 mg/mL</t>
   </si>
   <si>
@@ -475,6 +538,9 @@
     <t xml:space="preserve">Levonorgestrel 30 mcg Tablet, 35 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Levonorgestrel 30 mcg Tablet, 35 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 mcg</t>
   </si>
   <si>
@@ -490,6 +556,9 @@
     <t xml:space="preserve">Female Condom (Latex), Inner Retention Ring</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Female Condom (Latex), Inner Retention Ring</t>
+  </si>
+  <si>
     <t xml:space="preserve">8000</t>
   </si>
   <si>
@@ -505,6 +574,9 @@
     <t xml:space="preserve">Sharps Container, Cardboard, 5 L, White, Disposable, Water Resistant</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Sharps Container, Cardboard, 5 L, White, Disposable, Water Resistant</t>
+  </si>
+  <si>
     <t xml:space="preserve">42142531</t>
   </si>
   <si>
@@ -526,6 +598,9 @@
     <t xml:space="preserve">Norethisterone Enantate/Estradiol Valerate 50/5 mg/mL (1 mL) Ampoule, Intramuscular</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Norethisterone Enantate/Estradiol Valerate 50/5 mg/mL (1 mL) Ampoule, Intramuscular</t>
+  </si>
+  <si>
     <t xml:space="preserve">50/5 mg/mL</t>
   </si>
   <si>
@@ -544,6 +619,9 @@
     <t xml:space="preserve">Lynestrenol 0.5 mg Tablet, 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Lynestrenol 0.5 mg Tablet, 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.5 mg</t>
   </si>
   <si>
@@ -562,6 +640,9 @@
     <t xml:space="preserve">Female Condom (Latex), Inner Retention Sponge</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Female Condom (Latex), Inner Retention Sponge</t>
+  </si>
+  <si>
     <t xml:space="preserve">11005</t>
   </si>
   <si>
@@ -571,6 +652,9 @@
     <t xml:space="preserve">Male Condom (Latex), 58 mm</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Male Condom (Latex), 58 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">4002</t>
   </si>
   <si>
@@ -586,6 +670,9 @@
     <t xml:space="preserve">Norethisterone 350 mcg Tablet, 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Norethisterone 350 mcg Tablet, 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">350 mcg</t>
   </si>
   <si>
@@ -604,6 +691,9 @@
     <t xml:space="preserve">Norgestrel 75 mcg, 28 Tablets/Cycle</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Norgestrel 75 mcg, 28 Tablets/Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">75 mcg</t>
   </si>
   <si>
@@ -631,6 +721,9 @@
     <t xml:space="preserve">TCu380A Intrauterine Device</t>
   </si>
   <si>
+    <t xml:space="preserve">FR TCu380A Intrauterine Device</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vaginal</t>
   </si>
   <si>
@@ -640,6 +733,9 @@
     <t xml:space="preserve">Cu375 Intrauterine Device</t>
   </si>
   <si>
+    <t xml:space="preserve">FR Cu375 Intrauterine Device</t>
+  </si>
+  <si>
     <t xml:space="preserve">3000</t>
   </si>
   <si>
@@ -653,6 +749,9 @@
   </si>
   <si>
     <t xml:space="preserve">Levonorgestrel 0.75 mg Tablet, 2 Tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR Levonorgestrel 0.75 mg Tablet, 2 Tablets</t>
   </si>
   <si>
     <t xml:space="preserve">0.75 mg</t>
@@ -895,15 +994,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44814814814815"/>
+    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="8.44814814814815"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="53.7481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.44814814814815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,3310 +1071,3541 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>78</v>
+        <v>177</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>78</v>
+        <v>205</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>145</v>
+        <v>216</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>122</v>
+        <v>233</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>122</v>
+        <v>237</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>62</v>
+        <v>243</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>45</v>
+        <v>246</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>45</v>
+        <v>246</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>88</v>
+        <v>246</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>88</v>
+        <v>250</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>88</v>
+        <v>246</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>88</v>
+        <v>246</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>122</v>
+        <v>234</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>122</v>
+        <v>234</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>62</v>
+        <v>246</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>62</v>
+        <v>250</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>62</v>
+        <v>246</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>62</v>
+        <v>250</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>78</v>
+        <v>177</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>78</v>
+        <v>205</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>33</v>
+        <v>246</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>106</v>
+        <v>250</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>106</v>
+        <v>250</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>145</v>
+        <v>250</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>145</v>
+        <v>246</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>169</v>
+        <v>246</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>78</v>
+      <c r="V66" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>78</v>
+      <c r="V70" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>78</v>
+        <v>209</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>62</v>
+        <v>250</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>62</v>
+        <v>246</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>145</v>
+        <v>246</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M77" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
